--- a/work/benchmark/memcpy/memcpy_test.xlsx
+++ b/work/benchmark/memcpy/memcpy_test.xlsx
@@ -578,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,19 +640,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +956,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,11 +1021,11 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1022,10 +1040,10 @@
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1033,12 +1051,12 @@
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1046,12 +1064,12 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1059,12 +1077,12 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1078,8 +1096,8 @@
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1087,12 +1105,12 @@
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1100,14 +1118,12 @@
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1115,12 +1131,14 @@
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1128,11 +1146,11 @@
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="9" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1165,7 @@
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
@@ -1156,11 +1174,11 @@
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
@@ -1169,26 +1187,26 @@
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="7" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D6:D12"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,15 +1290,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="18">
         <v>2.81</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="18">
         <v>4.25</v>
       </c>
@@ -1292,25 +1310,25 @@
       <c r="B6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="18">
         <v>3.41</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="18">
         <v>4.12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="18">
         <v>3.47</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="18">
         <v>4.12</v>
       </c>
@@ -1322,25 +1340,25 @@
       <c r="B8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="18">
         <v>3.7</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="18">
         <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="18">
         <v>3.73</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="18">
         <v>4.0599999999999996</v>
       </c>
@@ -1352,25 +1370,25 @@
       <c r="B10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="18">
         <v>3.85</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="18">
         <v>4.03</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="18">
         <v>3.87</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="18">
         <v>4.03</v>
       </c>
@@ -1382,25 +1400,25 @@
       <c r="B12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="18">
         <v>3.93</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="18">
         <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="18">
         <v>3.93</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="18">
         <v>4.0199999999999996</v>
       </c>
@@ -1412,25 +1430,25 @@
       <c r="B14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="18">
         <v>4.71</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="18">
         <v>6.95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="18">
         <v>4.74</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="18">
         <v>6.95</v>
       </c>
@@ -1456,15 +1474,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="18">
         <v>12</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="18">
         <v>34.06</v>
       </c>
@@ -1476,25 +1494,25 @@
       <c r="B18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="18">
         <v>11.99</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="18">
         <v>34.03</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="18">
         <v>11.99</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="18">
         <v>34.299999999999997</v>
       </c>
@@ -1506,25 +1524,25 @@
       <c r="B20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="18">
         <v>26.63</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="18">
         <v>34.020000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="18">
         <v>27.12</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="18">
         <v>34.020000000000003</v>
       </c>
@@ -1542,21 +1560,21 @@
       <c r="D22" s="18">
         <v>36.74</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="18">
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="18">
         <v>39.56</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="18">
         <v>37.1</v>
       </c>
@@ -1568,25 +1586,25 @@
       <c r="B24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="18">
         <v>36.58</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="18">
         <v>34.19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="18">
         <v>42.27</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="18">
         <v>41.49</v>
       </c>
@@ -1598,25 +1616,25 @@
       <c r="B26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="18">
         <v>36.83</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="18">
         <v>34.19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="18">
         <v>43.51</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="18">
         <v>44.05</v>
       </c>
@@ -1628,7 +1646,7 @@
       <c r="B28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="18">
         <v>36.83</v>
       </c>
@@ -1640,15 +1658,15 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="18">
         <v>44.36</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="19">
         <v>179.19</v>
       </c>
@@ -1660,25 +1678,25 @@
       <c r="B30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="18">
         <v>100.86</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="19">
         <v>225.27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="18">
         <v>122.3</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="19">
         <v>287.74</v>
       </c>
@@ -1696,21 +1714,21 @@
       <c r="D32" s="18">
         <v>106.12</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="19">
         <v>224.88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="18">
         <v>138.63</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="19">
         <v>295.24</v>
       </c>
@@ -1722,25 +1740,25 @@
       <c r="B34" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="18">
         <v>133.71</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="19">
         <v>224.38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="18">
         <v>180.76</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="19">
         <v>301.08999999999997</v>
       </c>
@@ -1752,41 +1770,31 @@
       <c r="B36" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="18">
         <v>147.88999999999999</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="18">
         <v>215</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="19" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="E28:E37"/>
@@ -1803,6 +1811,16 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
